--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/WASHINGTON_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/WASHINGTON_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D988"/>
+  <dimension ref="A1:D982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C8">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C28">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C33">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C46">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C51">
@@ -1501,7 +1501,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C85">
@@ -1527,7 +1527,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1823,7 +1823,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C109">
@@ -1901,7 +1901,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C115">
@@ -1966,12 +1966,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C120">
@@ -1997,7 +1997,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C122">
@@ -2036,7 +2036,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C125">
@@ -2140,7 +2140,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C133">
@@ -2218,7 +2218,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C139">
@@ -2270,7 +2270,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C143">
@@ -2283,7 +2283,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C144">
@@ -2400,7 +2400,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C153">
@@ -2439,7 +2439,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C156">
@@ -2517,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C162">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C170">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C174">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C175">
@@ -2699,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C176">
@@ -2873,7 +2873,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C189">
@@ -3029,7 +3029,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C201">
@@ -3042,7 +3042,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C202">
@@ -3055,7 +3055,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C203">
@@ -3081,7 +3081,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C205">
@@ -3133,7 +3133,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C209">
@@ -3177,14 +3177,14 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C212">
         <v>41</v>
       </c>
       <c r="D212">
-        <v>0.009105041083721963</v>
+        <v>0.009105041083721965</v>
       </c>
     </row>
     <row r="213">
@@ -3216,7 +3216,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C215">
@@ -3229,7 +3229,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C216">
@@ -3268,7 +3268,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C219">
@@ -3281,7 +3281,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C220">
@@ -3320,7 +3320,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C223">
@@ -3333,7 +3333,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C224">
@@ -3346,7 +3346,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C225">
@@ -3359,7 +3359,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C226">
@@ -3424,7 +3424,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C231">
@@ -3437,7 +3437,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C232">
@@ -3463,7 +3463,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C234">
@@ -3528,7 +3528,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C239">
@@ -3541,7 +3541,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C240">
@@ -3567,7 +3567,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C242">
@@ -3593,7 +3593,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C244">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C259">
@@ -3814,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C261">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C263">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C266">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C267">
@@ -4027,7 +4027,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C277">
@@ -4053,7 +4053,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C279">
@@ -4105,7 +4105,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C283">
@@ -4144,7 +4144,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C286">
@@ -4222,7 +4222,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C292">
@@ -4235,7 +4235,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C293">
@@ -4248,7 +4248,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C294">
@@ -4274,7 +4274,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C296">
@@ -4300,7 +4300,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C298">
@@ -4313,7 +4313,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C299">
@@ -4326,7 +4326,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C300">
@@ -4352,7 +4352,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C302">
@@ -4365,7 +4365,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C303">
@@ -4378,7 +4378,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C304">
@@ -4435,7 +4435,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C308">
@@ -4513,7 +4513,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C314">
@@ -4617,7 +4617,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C322">
@@ -4721,7 +4721,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C330">
@@ -4773,7 +4773,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C334">
@@ -4786,7 +4786,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C335">
@@ -4825,7 +4825,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C338">
@@ -4890,7 +4890,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C343">
@@ -4942,7 +4942,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C347">
@@ -4994,7 +4994,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C351">
@@ -5020,7 +5020,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C353">
@@ -5033,7 +5033,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C354">
@@ -5072,7 +5072,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C357">
@@ -5085,7 +5085,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C358">
@@ -5124,7 +5124,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C361">
@@ -5137,7 +5137,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C362">
@@ -5215,7 +5215,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C368">
@@ -5228,7 +5228,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C369">
@@ -5254,7 +5254,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C371">
@@ -5267,7 +5267,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C372">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C380">
@@ -5410,7 +5410,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C383">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C384">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C387">
@@ -5475,7 +5475,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C388">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C389">
@@ -5766,7 +5766,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C410">
@@ -6390,7 +6390,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C458">
@@ -6681,7 +6681,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C480">
@@ -6920,7 +6920,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C498">
@@ -7011,7 +7011,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C505">
@@ -7146,7 +7146,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C515">
@@ -7190,7 +7190,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C518">
@@ -7242,7 +7242,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C522">
@@ -7294,7 +7294,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C526">
@@ -7307,7 +7307,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C527">
@@ -7320,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C528">
@@ -7346,7 +7346,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C530">
@@ -7359,7 +7359,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C531">
@@ -7372,7 +7372,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C532">
@@ -7385,7 +7385,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C533">
@@ -7398,7 +7398,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C534">
@@ -7424,7 +7424,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C536">
@@ -7450,7 +7450,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C538">
@@ -7463,7 +7463,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C539">
@@ -7489,7 +7489,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C541">
@@ -7528,7 +7528,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C544">
@@ -7554,7 +7554,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C546">
@@ -7567,7 +7567,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C547">
@@ -7580,7 +7580,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C548">
@@ -7853,7 +7853,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C569">
@@ -7970,7 +7970,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C578">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C609">
@@ -8659,7 +8659,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C631">
@@ -8698,7 +8698,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C634">
@@ -9257,7 +9257,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C677">
@@ -9374,7 +9374,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C686">
@@ -9387,7 +9387,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C687">
@@ -9400,7 +9400,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C688">
@@ -9413,7 +9413,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C689">
@@ -9426,7 +9426,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C690">
@@ -9439,7 +9439,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C691">
@@ -9452,7 +9452,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C692">
@@ -9465,7 +9465,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C693">
@@ -9478,7 +9478,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C694">
@@ -9491,7 +9491,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C695">
@@ -9504,7 +9504,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C696">
@@ -9530,7 +9530,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C698">
@@ -9951,7 +9951,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C730">
@@ -10042,7 +10042,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C737">
@@ -10107,7 +10107,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C742">
@@ -10120,7 +10120,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C743">
@@ -10159,7 +10159,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C746">
@@ -10224,7 +10224,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C751">
@@ -10289,7 +10289,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C756">
@@ -10341,7 +10341,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C760">
@@ -10380,7 +10380,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C763">
@@ -10393,7 +10393,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C764">
@@ -10432,7 +10432,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C767">
@@ -10645,7 +10645,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C783">
@@ -10658,7 +10658,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C784">
@@ -10697,7 +10697,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C787">
@@ -10723,7 +10723,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C789">
@@ -10762,7 +10762,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C792">
@@ -10928,7 +10928,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C804">
@@ -10954,7 +10954,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C806">
@@ -10980,7 +10980,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C808">
@@ -10993,7 +10993,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C809">
@@ -11006,7 +11006,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C810">
@@ -11302,7 +11302,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C832">
@@ -11972,7 +11972,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C882">
@@ -12089,7 +12089,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C891">
@@ -12128,7 +12128,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C894">
@@ -12297,7 +12297,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C907">
@@ -12336,7 +12336,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C910">
@@ -12635,7 +12635,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C933">
@@ -13035,7 +13035,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C963">
@@ -13061,7 +13061,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C965">
@@ -13074,7 +13074,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C966">
@@ -13178,7 +13178,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C974">
@@ -13191,7 +13191,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C975">
@@ -13204,7 +13204,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C976">
@@ -13290,41 +13290,6 @@
       </c>
       <c r="D982">
         <v>1</v>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>
